--- a/src/Input_Files/cultures/francia_cultures.xlsx
+++ b/src/Input_Files/cultures/francia_cultures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\france_export_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF4B9D-9442-41CB-9625-F14F20BD8904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E0BE97-6F0C-4CFE-AD70-F4681AF2196E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Culture</t>
   </si>
@@ -48,9 +48,6 @@
     <t>flemish</t>
   </si>
   <si>
-    <t>franconian</t>
-  </si>
-  <si>
     <t>(44, 76, 214)</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>(196, 189, 11)</t>
   </si>
   <si>
-    <t>(196, 11, 189)</t>
-  </si>
-  <si>
     <t>arpitan</t>
   </si>
   <si>
@@ -97,6 +91,36 @@
   </si>
   <si>
     <t>(243, 13, 13)</t>
+  </si>
+  <si>
+    <t>(38, 224, 252)</t>
+  </si>
+  <si>
+    <t>rhine_franconian</t>
+  </si>
+  <si>
+    <t>(251, 254, 1)</t>
+  </si>
+  <si>
+    <t>alemannic</t>
+  </si>
+  <si>
+    <t>gallo</t>
+  </si>
+  <si>
+    <t>(212, 242, 118)</t>
+  </si>
+  <si>
+    <t>gascon</t>
+  </si>
+  <si>
+    <t>(244, 191, 162)</t>
+  </si>
+  <si>
+    <t>provencal</t>
+  </si>
+  <si>
+    <t>(88, 104, 148)</t>
   </si>
 </sst>
 </file>
@@ -138,7 +162,48 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,7 +501,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -444,7 +509,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -452,7 +517,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -460,7 +525,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -468,7 +533,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -476,53 +541,97 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A13:A14">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B14">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>